--- a/Beginners/Input Begineers/Test.xlsx
+++ b/Beginners/Input Begineers/Test.xlsx
@@ -22,18 +22,6 @@
     <t>Department</t>
   </si>
   <si>
-    <t>KK</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
@@ -59,6 +47,18 @@
   </si>
   <si>
     <t>Roll Number</t>
+  </si>
+  <si>
+    <t>Manoj Kumar</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Devendra Singh</t>
+  </si>
+  <si>
+    <t>KK Chaudhary</t>
   </si>
 </sst>
 </file>
@@ -403,11 +403,12 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
@@ -423,27 +424,27 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -458,15 +459,15 @@
         <v>2132324323</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -481,15 +482,15 @@
         <v>2343456789</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -504,15 +505,15 @@
         <v>3434567678</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -527,7 +528,7 @@
         <v>5656787667</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
